--- a/StructureDefinition-ext-R5-Immunization.protocolApplied.xlsx
+++ b/StructureDefinition-ext-R5-Immunization.protocolApplied.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="172">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -441,7 +441,7 @@
     <t>Extension.extension:authority.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
 </t>
   </si>
   <si>
@@ -478,15 +478,6 @@
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-immunization-target-disease-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:doseNumber</t>
@@ -919,7 +910,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="66.46875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2881,13 +2872,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -2925,13 +2916,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2956,16 +2947,16 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O20" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3034,7 +3025,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3137,7 +3128,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3242,7 +3233,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -3285,7 +3276,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3347,7 +3338,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>122</v>
@@ -3376,13 +3367,13 @@
         <v>87</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3452,13 +3443,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3483,16 +3474,16 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3561,7 +3552,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>105</v>
@@ -3664,7 +3655,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>107</v>
@@ -3769,7 +3760,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>113</v>
@@ -3812,7 +3803,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3874,7 +3865,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>122</v>
@@ -3903,13 +3894,13 @@
         <v>87</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4110,13 +4101,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
